--- a/updatedExcels/S3_ME.xlsx
+++ b/updatedExcels/S3_ME.xlsx
@@ -19316,12 +19316,12 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -19343,12 +19343,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -19370,12 +19370,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -19451,12 +19451,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -19505,12 +19505,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -19694,12 +19694,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -19721,12 +19721,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -19775,12 +19775,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -19883,12 +19883,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -19910,12 +19910,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -19937,12 +19937,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -19964,12 +19964,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -20045,12 +20045,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -20072,12 +20072,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -20099,12 +20099,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -20126,12 +20126,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -20153,12 +20153,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -20207,12 +20207,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -20261,12 +20261,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -20288,12 +20288,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -20342,12 +20342,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -20369,12 +20369,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -20504,12 +20504,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -20531,12 +20531,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -20666,12 +20666,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -20720,12 +20720,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -20774,12 +20774,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -20801,12 +20801,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -20855,12 +20855,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -20882,12 +20882,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -20909,12 +20909,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -20936,12 +20936,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -20963,12 +20963,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -20990,12 +20990,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -21287,12 +21287,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -21314,12 +21314,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -21341,12 +21341,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -21368,12 +21368,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -21395,12 +21395,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -21422,12 +21422,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -21449,12 +21449,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -21476,12 +21476,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -21503,12 +21503,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -21530,12 +21530,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -21557,12 +21557,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -21584,12 +21584,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -21611,12 +21611,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -21638,12 +21638,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -21665,12 +21665,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -21692,12 +21692,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -21719,12 +21719,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -21746,12 +21746,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -21773,12 +21773,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -21800,12 +21800,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -21827,12 +21827,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -21881,12 +21881,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -21908,12 +21908,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -21935,12 +21935,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -21962,12 +21962,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -21989,12 +21989,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -22016,12 +22016,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -22043,12 +22043,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -22070,12 +22070,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -22097,12 +22097,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -22124,12 +22124,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -22151,12 +22151,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -22205,12 +22205,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -22232,12 +22232,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -22259,12 +22259,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -22286,12 +22286,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -22313,12 +22313,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -22340,12 +22340,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -22367,12 +22367,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -22421,12 +22421,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -22448,12 +22448,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -22475,12 +22475,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -22502,12 +22502,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -22529,12 +22529,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -22556,12 +22556,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -22583,12 +22583,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -22610,12 +22610,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -22637,12 +22637,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -22664,12 +22664,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -22691,12 +22691,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -22718,12 +22718,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -22745,12 +22745,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -22772,12 +22772,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -22799,12 +22799,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -22826,12 +22826,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -22853,12 +22853,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -22880,12 +22880,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -22934,12 +22934,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -22988,12 +22988,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -23042,12 +23042,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -23096,12 +23096,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -23123,12 +23123,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -23150,12 +23150,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -23177,12 +23177,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -23204,12 +23204,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -23231,12 +23231,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -23258,12 +23258,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -23312,12 +23312,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -23339,12 +23339,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -23366,12 +23366,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -23393,12 +23393,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -23420,12 +23420,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -23474,12 +23474,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -23501,12 +23501,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -23528,12 +23528,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -23555,12 +23555,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -23582,12 +23582,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -23609,12 +23609,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -23636,12 +23636,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -23663,12 +23663,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -23690,12 +23690,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -23717,12 +23717,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -23744,12 +23744,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -23771,12 +23771,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -23798,12 +23798,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -23825,12 +23825,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -23852,12 +23852,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -23879,12 +23879,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -23906,12 +23906,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -23933,12 +23933,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -23960,12 +23960,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -23987,12 +23987,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -24014,12 +24014,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -24041,12 +24041,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -24068,12 +24068,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -24095,12 +24095,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -24122,12 +24122,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -24149,12 +24149,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -24176,12 +24176,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -24203,12 +24203,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -24230,12 +24230,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -24257,12 +24257,12 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -24284,12 +24284,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -24311,12 +24311,12 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -24338,12 +24338,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -24365,12 +24365,12 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -24392,12 +24392,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -24419,12 +24419,12 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -24446,12 +24446,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -24473,12 +24473,12 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -24500,12 +24500,12 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -24527,12 +24527,12 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -24554,12 +24554,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -24581,12 +24581,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -24608,12 +24608,12 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -24635,12 +24635,12 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -24662,12 +24662,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -24689,12 +24689,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -24743,12 +24743,12 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -24770,12 +24770,12 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -24797,12 +24797,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -24824,12 +24824,12 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -24851,12 +24851,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -24878,12 +24878,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -24905,12 +24905,12 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -24932,12 +24932,12 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -24959,12 +24959,12 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -24986,12 +24986,12 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -25013,12 +25013,12 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -25094,12 +25094,12 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -25121,12 +25121,12 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -25148,12 +25148,12 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -25175,12 +25175,12 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -25202,12 +25202,12 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -25229,12 +25229,12 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -25256,12 +25256,12 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -25310,12 +25310,12 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -25337,12 +25337,12 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -25391,12 +25391,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -25418,12 +25418,12 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -25445,12 +25445,12 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -25499,12 +25499,12 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -25526,12 +25526,12 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -25553,12 +25553,12 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -25580,12 +25580,12 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -25607,12 +25607,12 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -25634,12 +25634,12 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -25661,12 +25661,12 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -25688,12 +25688,12 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -25715,12 +25715,12 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -25742,12 +25742,12 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -25769,12 +25769,12 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -25796,12 +25796,12 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -25823,12 +25823,12 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -25850,12 +25850,12 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -25904,12 +25904,12 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -25931,12 +25931,12 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -25958,12 +25958,12 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -25985,12 +25985,12 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -26012,12 +26012,12 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -26039,12 +26039,12 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -26066,12 +26066,12 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -26120,12 +26120,12 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -26147,12 +26147,12 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -26174,12 +26174,12 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -26201,12 +26201,12 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -26228,12 +26228,12 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -26255,12 +26255,12 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -26309,12 +26309,12 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -26336,12 +26336,12 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -26363,12 +26363,12 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -26390,12 +26390,12 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -26417,12 +26417,12 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -26471,12 +26471,12 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -26498,12 +26498,12 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -26525,12 +26525,12 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -26552,12 +26552,12 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -26579,12 +26579,12 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -26606,12 +26606,12 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -26633,12 +26633,12 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -26660,12 +26660,12 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -26687,12 +26687,12 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -26714,12 +26714,12 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -26741,12 +26741,12 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -26768,12 +26768,12 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -26795,12 +26795,12 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -26822,12 +26822,12 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -26876,12 +26876,12 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -26903,12 +26903,12 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -26957,12 +26957,12 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -26984,12 +26984,12 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -27038,12 +27038,12 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -27065,12 +27065,12 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -27146,12 +27146,12 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -27173,12 +27173,12 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -27200,12 +27200,12 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -27227,12 +27227,12 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -27254,12 +27254,12 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -27281,12 +27281,12 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -27308,12 +27308,12 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -27335,12 +27335,12 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -27362,12 +27362,12 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -27389,12 +27389,12 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -27416,12 +27416,12 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -27443,12 +27443,12 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -27470,12 +27470,12 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -27497,12 +27497,12 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -27524,12 +27524,12 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -27551,12 +27551,12 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -27578,12 +27578,12 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -27632,12 +27632,12 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -27659,12 +27659,12 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -27686,12 +27686,12 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -27713,12 +27713,12 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -27740,12 +27740,12 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -27767,12 +27767,12 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -27794,12 +27794,12 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -27848,12 +27848,12 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -27875,12 +27875,12 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -27902,12 +27902,12 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -27929,12 +27929,12 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -27956,12 +27956,12 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -27983,12 +27983,12 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -28010,12 +28010,12 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -28037,12 +28037,12 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -28064,12 +28064,12 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -28118,12 +28118,12 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -28145,12 +28145,12 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -28172,12 +28172,12 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -28199,12 +28199,12 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -28226,12 +28226,12 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -28280,12 +28280,12 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -28307,12 +28307,12 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -28334,12 +28334,12 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -28361,12 +28361,12 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -28388,12 +28388,12 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -28415,12 +28415,12 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -28442,12 +28442,12 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -28469,12 +28469,12 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -28496,12 +28496,12 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -28523,12 +28523,12 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -28550,12 +28550,12 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -28577,12 +28577,12 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -28604,12 +28604,12 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -28631,12 +28631,12 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -28658,12 +28658,12 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -28685,12 +28685,12 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -28712,12 +28712,12 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -28739,12 +28739,12 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -28766,12 +28766,12 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -28793,12 +28793,12 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -28820,12 +28820,12 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -28874,12 +28874,12 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -28901,12 +28901,12 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -28928,12 +28928,12 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -28955,12 +28955,12 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -29009,12 +29009,12 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -29036,12 +29036,12 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -29063,12 +29063,12 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -29117,12 +29117,12 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -29144,12 +29144,12 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -29171,12 +29171,12 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -29198,12 +29198,12 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -29225,12 +29225,12 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -29279,12 +29279,12 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -29306,12 +29306,12 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -29387,12 +29387,12 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -29414,12 +29414,12 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -29441,12 +29441,12 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -29468,12 +29468,12 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -29495,12 +29495,12 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -29522,12 +29522,12 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -29549,12 +29549,12 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -29576,12 +29576,12 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -29603,12 +29603,12 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -29630,12 +29630,12 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -29657,12 +29657,12 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -29684,12 +29684,12 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -29711,12 +29711,12 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -29738,12 +29738,12 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -29792,12 +29792,12 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -29819,12 +29819,12 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -29846,12 +29846,12 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -29900,12 +29900,12 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -29927,12 +29927,12 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -29954,12 +29954,12 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -29981,12 +29981,12 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -30008,12 +30008,12 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -30062,12 +30062,12 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -30116,12 +30116,12 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -30143,12 +30143,12 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -30197,12 +30197,12 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -30224,12 +30224,12 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -30251,12 +30251,12 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -30278,12 +30278,12 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -30305,12 +30305,12 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -30332,12 +30332,12 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -30359,12 +30359,12 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -30386,12 +30386,12 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -30440,12 +30440,12 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -30467,12 +30467,12 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -30494,12 +30494,12 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -30521,12 +30521,12 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -30548,12 +30548,12 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -30575,12 +30575,12 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -30602,12 +30602,12 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -30629,12 +30629,12 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -30656,12 +30656,12 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -30683,12 +30683,12 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -30710,12 +30710,12 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -30737,12 +30737,12 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -30764,12 +30764,12 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -30791,12 +30791,12 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -30818,12 +30818,12 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -30845,12 +30845,12 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -30872,12 +30872,12 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -30899,12 +30899,12 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -30926,12 +30926,12 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -30980,12 +30980,12 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -31007,12 +31007,12 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -31034,12 +31034,12 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -31061,12 +31061,12 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -31088,12 +31088,12 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -31142,12 +31142,12 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -31169,12 +31169,12 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -31196,12 +31196,12 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -31223,12 +31223,12 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -31250,12 +31250,12 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -31277,12 +31277,12 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -31304,12 +31304,12 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -31331,12 +31331,12 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -31358,12 +31358,12 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -31385,12 +31385,12 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -31412,12 +31412,12 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -31439,12 +31439,12 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -31466,12 +31466,12 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -31493,12 +31493,12 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -31520,12 +31520,12 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -31547,12 +31547,12 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -31574,12 +31574,12 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -31601,12 +31601,12 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -31628,12 +31628,12 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -31655,12 +31655,12 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -31682,12 +31682,12 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -31709,12 +31709,12 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -31736,12 +31736,12 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -31763,12 +31763,12 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -31790,12 +31790,12 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -31817,12 +31817,12 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -31844,12 +31844,12 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -31871,12 +31871,12 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -31898,12 +31898,12 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -31925,12 +31925,12 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -31952,12 +31952,12 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -31979,12 +31979,12 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -32006,12 +32006,12 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -32033,12 +32033,12 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -32060,12 +32060,12 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -32087,12 +32087,12 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -32114,12 +32114,12 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -32141,12 +32141,12 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -32168,12 +32168,12 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -32195,12 +32195,12 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -32249,12 +32249,12 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -32276,12 +32276,12 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -32330,12 +32330,12 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -32384,12 +32384,12 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -32438,12 +32438,12 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -32465,12 +32465,12 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -32492,12 +32492,12 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -32519,12 +32519,12 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -32546,12 +32546,12 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -32600,12 +32600,12 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -32627,12 +32627,12 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -32654,12 +32654,12 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -32708,12 +32708,12 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -32735,12 +32735,12 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -32762,12 +32762,12 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -32789,12 +32789,12 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -32816,12 +32816,12 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -32843,12 +32843,12 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -32870,12 +32870,12 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -32897,12 +32897,12 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -32924,12 +32924,12 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -32978,12 +32978,12 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -33005,12 +33005,12 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -33032,12 +33032,12 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -33059,12 +33059,12 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
@@ -33086,12 +33086,12 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -33113,12 +33113,12 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -33140,12 +33140,12 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -33194,12 +33194,12 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -33221,12 +33221,12 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -33248,12 +33248,12 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -33302,12 +33302,12 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -33329,12 +33329,12 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -33356,12 +33356,12 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>MEL203</t>
+          <t>MEL201</t>
         </is>
       </c>
     </row>
@@ -33383,12 +33383,12 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>MET203</t>
+          <t>MCN201</t>
         </is>
       </c>
     </row>
@@ -33410,12 +33410,12 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>MCN201</t>
+          <t>MET201</t>
         </is>
       </c>
     </row>
@@ -33437,12 +33437,12 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>MET201</t>
+          <t>MET203</t>
         </is>
       </c>
     </row>
@@ -33464,12 +33464,12 @@
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>MEL201</t>
+          <t>HUT200</t>
         </is>
       </c>
     </row>
@@ -33491,12 +33491,12 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>MAT201</t>
+          <t>MEL203</t>
         </is>
       </c>
     </row>
@@ -33518,12 +33518,12 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>HUT200</t>
+          <t>MET205</t>
         </is>
       </c>
     </row>
@@ -33545,12 +33545,12 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>MET205</t>
+          <t>MAT201</t>
         </is>
       </c>
     </row>
